--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H2">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I2">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J2">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>2269.676636031727</v>
+        <v>2795.473306670917</v>
       </c>
       <c r="R2">
-        <v>2269.676636031727</v>
+        <v>25159.25976003825</v>
       </c>
       <c r="S2">
-        <v>0.2010620702977779</v>
+        <v>0.2146029534793088</v>
       </c>
       <c r="T2">
-        <v>0.2010620702977779</v>
+        <v>0.2398120009040031</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H3">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I3">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J3">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>2541.962937961398</v>
+        <v>2991.559090352297</v>
       </c>
       <c r="R3">
-        <v>2541.962937961398</v>
+        <v>26924.03181317067</v>
       </c>
       <c r="S3">
-        <v>0.2251828841223513</v>
+        <v>0.2296560710365078</v>
       </c>
       <c r="T3">
-        <v>0.2251828841223513</v>
+        <v>0.2566333828221374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H4">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I4">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J4">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>1307.77119686613</v>
+        <v>1502.159551057635</v>
       </c>
       <c r="R4">
-        <v>1307.77119686613</v>
+        <v>13519.43595951872</v>
       </c>
       <c r="S4">
-        <v>0.1158505049324706</v>
+        <v>0.1153178159436706</v>
       </c>
       <c r="T4">
-        <v>0.1158505049324706</v>
+        <v>0.1288640055179742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H5">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I5">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J5">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>1555.87997645717</v>
+        <v>1716.22716420458</v>
       </c>
       <c r="R5">
-        <v>1555.87997645717</v>
+        <v>15446.04447784122</v>
       </c>
       <c r="S5">
-        <v>0.1378295234814955</v>
+        <v>0.1317513629626937</v>
       </c>
       <c r="T5">
-        <v>0.1378295234814955</v>
+        <v>0.1472279736213391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H6">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I6">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J6">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>3070.131126048416</v>
+        <v>3423.195109564851</v>
       </c>
       <c r="R6">
-        <v>3070.131126048416</v>
+        <v>20539.17065738911</v>
       </c>
       <c r="S6">
-        <v>0.2719713066122929</v>
+        <v>0.2627919140188104</v>
       </c>
       <c r="T6">
-        <v>0.2719713066122929</v>
+        <v>0.1957744249725804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.926897777906496</v>
+        <v>0.040521</v>
       </c>
       <c r="H7">
-        <v>0.926897777906496</v>
+        <v>0.121563</v>
       </c>
       <c r="I7">
-        <v>0.04810371055361184</v>
+        <v>0.001911594941455862</v>
       </c>
       <c r="J7">
-        <v>0.04810371055361184</v>
+        <v>0.00194002818046413</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>114.6972303185081</v>
+        <v>5.600775556792001</v>
       </c>
       <c r="R7">
-        <v>114.6972303185081</v>
+        <v>50.40698001112801</v>
       </c>
       <c r="S7">
-        <v>0.01016059390097979</v>
+        <v>0.0004299604554956948</v>
       </c>
       <c r="T7">
-        <v>0.01016059390097979</v>
+        <v>0.0004804671858906201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.926897777906496</v>
+        <v>0.040521</v>
       </c>
       <c r="H8">
-        <v>0.926897777906496</v>
+        <v>0.121563</v>
       </c>
       <c r="I8">
-        <v>0.04810371055361184</v>
+        <v>0.001911594941455862</v>
       </c>
       <c r="J8">
-        <v>0.04810371055361184</v>
+        <v>0.00194002818046413</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>128.4571131975094</v>
+        <v>5.993636565929999</v>
       </c>
       <c r="R8">
-        <v>128.4571131975094</v>
+        <v>53.94272909337</v>
       </c>
       <c r="S8">
-        <v>0.01137952989159034</v>
+        <v>0.0004601196176907646</v>
       </c>
       <c r="T8">
-        <v>0.01137952989159034</v>
+        <v>0.0005141690940625661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.926897777906496</v>
+        <v>0.040521</v>
       </c>
       <c r="H9">
-        <v>0.926897777906496</v>
+        <v>0.121563</v>
       </c>
       <c r="I9">
-        <v>0.04810371055361184</v>
+        <v>0.001911594941455862</v>
       </c>
       <c r="J9">
-        <v>0.04810371055361184</v>
+        <v>0.00194002818046413</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>66.08771125789953</v>
+        <v>3.009600726964</v>
       </c>
       <c r="R9">
-        <v>66.08771125789953</v>
+        <v>27.086406542676</v>
       </c>
       <c r="S9">
-        <v>0.005854460426568579</v>
+        <v>0.0002310410917745819</v>
       </c>
       <c r="T9">
-        <v>0.005854460426568579</v>
+        <v>0.0002581810996131047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1033,49 +1033,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.926897777906496</v>
+        <v>0.040521</v>
       </c>
       <c r="H10">
-        <v>0.926897777906496</v>
+        <v>0.121563</v>
       </c>
       <c r="I10">
-        <v>0.04810371055361184</v>
+        <v>0.001911594941455862</v>
       </c>
       <c r="J10">
-        <v>0.04810371055361184</v>
+        <v>0.00194002818046413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>78.62579240348158</v>
+        <v>3.438488619527001</v>
       </c>
       <c r="R10">
-        <v>78.62579240348158</v>
+        <v>30.94639757574301</v>
       </c>
       <c r="S10">
-        <v>0.006965161621915871</v>
+        <v>0.0002639659665125726</v>
       </c>
       <c r="T10">
-        <v>0.006965161621915871</v>
+        <v>0.0002949736039212641</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.040521</v>
+      </c>
+      <c r="H11">
+        <v>0.121563</v>
+      </c>
+      <c r="I11">
+        <v>0.001911594941455862</v>
+      </c>
+      <c r="J11">
+        <v>0.00194002818046413</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>169.2560955</v>
+      </c>
+      <c r="N11">
+        <v>338.512191</v>
+      </c>
+      <c r="O11">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P11">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q11">
+        <v>6.858426245755501</v>
+      </c>
+      <c r="R11">
+        <v>41.150557474533</v>
+      </c>
+      <c r="S11">
+        <v>0.0005265078099822482</v>
+      </c>
+      <c r="T11">
+        <v>0.0003922371969765751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.864034</v>
+      </c>
+      <c r="I12">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J12">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N12">
+        <v>414.657256</v>
+      </c>
+      <c r="O12">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P12">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q12">
+        <v>128.8225372551173</v>
+      </c>
+      <c r="R12">
+        <v>772.9352235307041</v>
+      </c>
+      <c r="S12">
+        <v>0.009889451243792874</v>
+      </c>
+      <c r="T12">
+        <v>0.007367432281075955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.864034</v>
+      </c>
+      <c r="I13">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J13">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>147.91433</v>
+      </c>
+      <c r="N13">
+        <v>443.74299</v>
+      </c>
+      <c r="O13">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P13">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q13">
+        <v>137.85867010361</v>
+      </c>
+      <c r="R13">
+        <v>827.15202062166</v>
+      </c>
+      <c r="S13">
+        <v>0.01058313727996085</v>
+      </c>
+      <c r="T13">
+        <v>0.007884213725243878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.926897777906496</v>
-      </c>
-      <c r="H11">
-        <v>0.926897777906496</v>
-      </c>
-      <c r="I11">
-        <v>0.04810371055361184</v>
-      </c>
-      <c r="J11">
-        <v>0.04810371055361184</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N11">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O11">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P11">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q11">
-        <v>155.147888153823</v>
-      </c>
-      <c r="R11">
-        <v>155.147888153823</v>
-      </c>
-      <c r="S11">
-        <v>0.01374396471255727</v>
-      </c>
-      <c r="T11">
-        <v>0.01374396471255727</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.864034</v>
+      </c>
+      <c r="I14">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J14">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N14">
+        <v>222.817852</v>
+      </c>
+      <c r="O14">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P14">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q14">
+        <v>69.22334198916134</v>
+      </c>
+      <c r="R14">
+        <v>415.340051934968</v>
+      </c>
+      <c r="S14">
+        <v>0.005314138970718159</v>
+      </c>
+      <c r="T14">
+        <v>0.003958921282266924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.864034</v>
+      </c>
+      <c r="I15">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J15">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N15">
+        <v>254.570861</v>
+      </c>
+      <c r="O15">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P15">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q15">
+        <v>79.08812338554569</v>
+      </c>
+      <c r="R15">
+        <v>474.5287403132741</v>
+      </c>
+      <c r="S15">
+        <v>0.006071438716002773</v>
+      </c>
+      <c r="T15">
+        <v>0.00452309359601005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.864034</v>
+      </c>
+      <c r="I16">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J16">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>157.7495583596235</v>
+      </c>
+      <c r="R16">
+        <v>630.9982334384941</v>
+      </c>
+      <c r="S16">
+        <v>0.01211012140707843</v>
+      </c>
+      <c r="T16">
+        <v>0.006014523096904758</v>
       </c>
     </row>
   </sheetData>
